--- a/data/trans_orig/IP07C17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA063EFB-E790-4723-AC03-7E6240E7BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E481F21A-5778-4377-9F75-80E68D69F6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{314148FC-2F85-4F84-9604-F434789CE255}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4060D673-94CC-43D3-B00A-40824F827CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="726">
   <si>
     <t>Menores según frecuencia de gustarle ir al colegio en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,2152 +76,2146 @@
     <t>24,53%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>39,99%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>35,65%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>40,95%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>4,69%</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C51CAE-3476-4EFA-94AE-999A15832068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DFC14D-926D-4378-8B1C-A9629450C427}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3529,7 +3523,7 @@
         <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>127</v>
@@ -3607,13 +3601,13 @@
         <v>12297</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3834,7 @@
         <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3849,13 +3843,13 @@
         <v>1781</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3864,13 +3858,13 @@
         <v>3467</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3879,13 @@
         <v>1850</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3900,13 +3894,13 @@
         <v>1264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3915,13 +3909,13 @@
         <v>3114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,7 +3971,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3989,13 +3983,13 @@
         <v>18915</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -4004,13 +3998,13 @@
         <v>23513</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -4019,13 +4013,13 @@
         <v>42428</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>35160</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -4055,13 +4049,13 @@
         <v>31503</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -4070,13 +4064,13 @@
         <v>66664</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4085,13 @@
         <v>20379</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -4124,10 +4118,10 @@
         <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4136,13 @@
         <v>7985</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4157,13 +4151,13 @@
         <v>3768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -4172,13 +4166,13 @@
         <v>11753</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4187,13 @@
         <v>4995</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -4208,13 +4202,13 @@
         <v>5080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -4223,13 +4217,13 @@
         <v>10075</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4291,13 @@
         <v>65117</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>123</v>
@@ -4312,13 +4306,13 @@
         <v>83310</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>221</v>
@@ -4327,13 +4321,13 @@
         <v>148427</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4342,13 @@
         <v>115648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>196</v>
@@ -4363,13 +4357,13 @@
         <v>131027</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>369</v>
@@ -4378,13 +4372,13 @@
         <v>246675</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4393,13 @@
         <v>92755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>77</v>
@@ -4414,13 +4408,13 @@
         <v>52422</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>218</v>
@@ -4429,13 +4423,13 @@
         <v>145177</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4444,13 @@
         <v>16420</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -4468,10 +4462,10 @@
         <v>137</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="M37" s="7">
         <v>44</v>
@@ -4480,13 +4474,13 @@
         <v>29500</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4495,7 @@
         <v>18943</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>264</v>
@@ -4537,7 +4531,7 @@
         <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4587,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4614,7 +4608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF306A6-005A-4DF8-B01D-1EDD33BADDF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7752C-0F40-424A-AA6F-6A440A6CEDF6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4631,7 +4625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4738,13 +4732,13 @@
         <v>5120</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4753,13 +4747,13 @@
         <v>3471</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4768,13 +4762,13 @@
         <v>8591</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4783,13 @@
         <v>4926</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4804,13 +4798,13 @@
         <v>4193</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4819,13 +4813,13 @@
         <v>9119</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4834,13 @@
         <v>4444</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4855,13 +4849,13 @@
         <v>3611</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4870,13 +4864,13 @@
         <v>8055</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4912,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4927,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4942,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4963,7 +4957,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4978,7 +4972,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5040,13 @@
         <v>23951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5061,13 +5055,13 @@
         <v>24021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5076,13 +5070,13 @@
         <v>47973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5091,13 @@
         <v>17847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5112,13 +5106,13 @@
         <v>18017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -5127,13 +5121,13 @@
         <v>35864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5142,13 @@
         <v>10686</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5163,13 +5157,13 @@
         <v>6936</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -5178,13 +5172,13 @@
         <v>17622</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5193,13 @@
         <v>2107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5214,13 +5208,13 @@
         <v>1566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5229,13 +5223,13 @@
         <v>3672</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5244,13 @@
         <v>2265</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5265,13 +5259,13 @@
         <v>1631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5280,13 +5274,13 @@
         <v>3895</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5348,13 @@
         <v>29417</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5369,10 +5363,10 @@
         <v>41310</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>349</v>
@@ -5387,10 +5381,10 @@
         <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5399,13 @@
         <v>36727</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -5420,13 +5414,13 @@
         <v>34998</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5435,13 +5429,13 @@
         <v>71725</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5450,13 @@
         <v>17595</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5471,13 +5465,13 @@
         <v>13126</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5486,13 +5480,13 @@
         <v>30720</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5501,13 @@
         <v>6896</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5522,13 +5516,13 @@
         <v>3997</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -5537,13 +5531,13 @@
         <v>10893</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5552,13 @@
         <v>3961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5573,13 +5567,13 @@
         <v>3170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5588,13 +5582,13 @@
         <v>7132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5656,13 @@
         <v>27380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -5677,13 +5671,13 @@
         <v>25768</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5692,13 +5686,13 @@
         <v>53147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5707,13 @@
         <v>17127</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5728,13 +5722,13 @@
         <v>19742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -5743,13 +5737,13 @@
         <v>36869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5758,13 @@
         <v>12969</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -5779,13 +5773,13 @@
         <v>13771</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -5794,13 +5788,13 @@
         <v>26740</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5809,13 @@
         <v>4173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5830,13 +5824,13 @@
         <v>3896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5845,13 +5839,13 @@
         <v>8069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5860,13 @@
         <v>6778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5881,13 +5875,13 @@
         <v>1991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -5896,13 +5890,13 @@
         <v>8769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,7 +5952,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5970,13 +5964,13 @@
         <v>21848</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -5985,13 +5979,13 @@
         <v>24278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -6000,13 +5994,13 @@
         <v>46125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6015,13 @@
         <v>38045</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -6036,13 +6030,13 @@
         <v>36599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -6051,13 +6045,13 @@
         <v>74643</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6066,13 @@
         <v>20338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6087,13 +6081,13 @@
         <v>18902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -6102,13 +6096,13 @@
         <v>39239</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6117,13 @@
         <v>6996</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6141,10 +6135,10 @@
         <v>137</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6153,13 +6147,13 @@
         <v>10856</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>457</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6168,13 @@
         <v>2627</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6189,13 +6183,13 @@
         <v>2087</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6204,13 +6198,13 @@
         <v>4714</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6272,13 @@
         <v>107716</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H34" s="7">
         <v>170</v>
@@ -6293,13 +6287,13 @@
         <v>118848</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>322</v>
@@ -6308,13 +6302,13 @@
         <v>226564</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6323,13 @@
         <v>114671</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H35" s="7">
         <v>162</v>
@@ -6344,13 +6338,13 @@
         <v>113549</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M35" s="7">
         <v>331</v>
@@ -6359,13 +6353,13 @@
         <v>228219</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,10 +6374,10 @@
         <v>66032</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>14</v>
@@ -6395,13 +6389,13 @@
         <v>56345</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -6410,13 +6404,13 @@
         <v>122377</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6425,13 @@
         <v>20173</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6446,13 +6440,13 @@
         <v>13318</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -6461,13 +6455,13 @@
         <v>33490</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>337</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6476,13 @@
         <v>15631</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>135</v>
+        <v>499</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -6500,10 +6494,10 @@
         <v>94</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>37</v>
@@ -6512,13 +6506,13 @@
         <v>24509</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>94</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,7 +6568,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +6589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA76926-614C-4BA7-A277-AC0DCE35195B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D07AC45-08A5-4927-A992-2DEABA5B4D0F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6612,7 +6606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6719,13 +6713,13 @@
         <v>3380</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6734,13 +6728,13 @@
         <v>2653</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6749,13 +6743,13 @@
         <v>6034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6764,13 @@
         <v>7110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6785,13 +6779,13 @@
         <v>7362</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -6800,13 +6794,13 @@
         <v>14472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6815,13 @@
         <v>1670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6836,13 +6830,13 @@
         <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>278</v>
+        <v>526</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6851,13 +6845,13 @@
         <v>2705</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6866,13 @@
         <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6887,13 +6881,13 @@
         <v>1672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>536</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6902,13 +6896,13 @@
         <v>2719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>538</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,7 +6923,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6944,7 +6938,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6959,7 +6953,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7021,13 @@
         <v>19692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7042,13 +7036,13 @@
         <v>16730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7057,13 +7051,13 @@
         <v>36422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7072,13 @@
         <v>22968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -7093,13 +7087,13 @@
         <v>26656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -7108,13 +7102,13 @@
         <v>49625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7123,13 @@
         <v>10827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>554</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -7144,13 +7138,13 @@
         <v>8095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>556</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -7159,13 +7153,13 @@
         <v>18922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7174,13 @@
         <v>2899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7195,13 +7189,13 @@
         <v>1998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>565</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7210,10 +7204,10 @@
         <v>4897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>568</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>570</v>
@@ -7261,7 +7255,7 @@
         <v>4252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>576</v>
@@ -7389,10 +7383,10 @@
         <v>587</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>588</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -7401,13 +7395,13 @@
         <v>35523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>112</v>
@@ -7440,7 +7434,7 @@
         <v>595</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>596</v>
@@ -7452,13 +7446,13 @@
         <v>22105</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>253</v>
+        <v>597</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -7467,13 +7461,13 @@
         <v>41946</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7482,13 @@
         <v>2738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>605</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7503,13 +7497,13 @@
         <v>5872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>605</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -7518,13 +7512,13 @@
         <v>8610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7533,13 @@
         <v>1246</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>608</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7554,13 +7548,13 @@
         <v>3140</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -7569,13 +7563,13 @@
         <v>4386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7637,13 @@
         <v>23518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -7679,7 +7673,7 @@
         <v>620</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7688,13 @@
         <v>24362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -7709,13 +7703,13 @@
         <v>17438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>625</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -7724,13 +7718,13 @@
         <v>41801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>629</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7739,13 @@
         <v>18955</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -7760,13 +7754,13 @@
         <v>13419</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>633</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -7775,13 +7769,13 @@
         <v>32374</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7790,13 @@
         <v>4801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -7811,13 +7805,13 @@
         <v>4911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>643</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7826,13 +7820,13 @@
         <v>9713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>640</v>
+        <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>644</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7841,13 @@
         <v>2984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>498</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>644</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7862,13 +7856,13 @@
         <v>2246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>645</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>646</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -7877,13 +7871,13 @@
         <v>5229</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7933,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7951,13 +7945,13 @@
         <v>21069</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -7966,13 +7960,13 @@
         <v>35359</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>655</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -7981,13 +7975,13 @@
         <v>56427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7996,13 @@
         <v>46395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -8017,13 +8011,13 @@
         <v>45202</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M29" s="7">
         <v>121</v>
@@ -8032,13 +8026,13 @@
         <v>91596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8047,13 @@
         <v>20223</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -8068,13 +8062,13 @@
         <v>14721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>671</v>
+        <v>273</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>668</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8083,13 +8077,13 @@
         <v>34944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8098,13 @@
         <v>6711</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8119,13 +8113,13 @@
         <v>3916</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>608</v>
+        <v>370</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>296</v>
+        <v>676</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8134,13 +8128,13 @@
         <v>10627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8149,13 @@
         <v>5130</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8170,13 +8164,13 @@
         <v>4687</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>687</v>
+        <v>502</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -8185,13 +8179,13 @@
         <v>9817</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>689</v>
+        <v>129</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8253,13 @@
         <v>104877</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>450</v>
+        <v>687</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -8274,13 +8268,13 @@
         <v>122894</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>694</v>
+        <v>296</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M34" s="7">
         <v>324</v>
@@ -8289,13 +8283,13 @@
         <v>227771</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>693</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8304,13 @@
         <v>142460</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H35" s="7">
         <v>183</v>
@@ -8325,13 +8319,13 @@
         <v>132181</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M35" s="7">
         <v>376</v>
@@ -8340,13 +8334,13 @@
         <v>274641</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8355,13 @@
         <v>71517</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H36" s="7">
         <v>87</v>
@@ -8376,13 +8370,13 @@
         <v>59376</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M36" s="7">
         <v>186</v>
@@ -8391,13 +8385,13 @@
         <v>130892</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8406,13 @@
         <v>18196</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>713</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -8427,13 +8421,13 @@
         <v>18369</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>228</v>
+        <v>716</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>718</v>
+        <v>648</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -8442,13 +8436,13 @@
         <v>36565</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>468</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8457,13 @@
         <v>10810</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -8481,10 +8475,10 @@
         <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="M38" s="7">
         <v>33</v>
@@ -8493,13 +8487,13 @@
         <v>23685</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,7 +8549,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
